--- a/other2/thomas/CF_839D_Winterishere/CF_839D_Winterishere.xlsx
+++ b/other2/thomas/CF_839D_Winterishere/CF_839D_Winterishere.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\CF_839D_Winterishere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{470FD84C-13CF-4272-8172-8063847EF19E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913D1929-E679-4CB0-AD6F-908CCCA28350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="0" windowWidth="37060" windowHeight="18290" xr2:uid="{246F2BD8-E181-44C1-A457-C6F82A5281E5}"/>
   </bookViews>
@@ -707,6 +707,745 @@
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80565</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20638</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="任意多边形: 形状 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FBF39D7-8580-4084-B7CB-392FA7F4E4E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1420018" y="1690520"/>
+          <a:ext cx="2952354" cy="1187617"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 2887266 w 2958704"/>
+            <a:gd name="connsiteY0" fmla="*/ 294649 h 1187617"/>
+            <a:gd name="connsiteX1" fmla="*/ 2899172 w 2958704"/>
+            <a:gd name="connsiteY1" fmla="*/ 324414 h 1187617"/>
+            <a:gd name="connsiteX2" fmla="*/ 2911079 w 2958704"/>
+            <a:gd name="connsiteY2" fmla="*/ 342274 h 1187617"/>
+            <a:gd name="connsiteX3" fmla="*/ 2922985 w 2958704"/>
+            <a:gd name="connsiteY3" fmla="*/ 377992 h 1187617"/>
+            <a:gd name="connsiteX4" fmla="*/ 2928938 w 2958704"/>
+            <a:gd name="connsiteY4" fmla="*/ 395852 h 1187617"/>
+            <a:gd name="connsiteX5" fmla="*/ 2934891 w 2958704"/>
+            <a:gd name="connsiteY5" fmla="*/ 419664 h 1187617"/>
+            <a:gd name="connsiteX6" fmla="*/ 2946797 w 2958704"/>
+            <a:gd name="connsiteY6" fmla="*/ 455383 h 1187617"/>
+            <a:gd name="connsiteX7" fmla="*/ 2952750 w 2958704"/>
+            <a:gd name="connsiteY7" fmla="*/ 473242 h 1187617"/>
+            <a:gd name="connsiteX8" fmla="*/ 2958704 w 2958704"/>
+            <a:gd name="connsiteY8" fmla="*/ 497055 h 1187617"/>
+            <a:gd name="connsiteX9" fmla="*/ 2952750 w 2958704"/>
+            <a:gd name="connsiteY9" fmla="*/ 604211 h 1187617"/>
+            <a:gd name="connsiteX10" fmla="*/ 2946797 w 2958704"/>
+            <a:gd name="connsiteY10" fmla="*/ 622070 h 1187617"/>
+            <a:gd name="connsiteX11" fmla="*/ 2911079 w 2958704"/>
+            <a:gd name="connsiteY11" fmla="*/ 651836 h 1187617"/>
+            <a:gd name="connsiteX12" fmla="*/ 2893219 w 2958704"/>
+            <a:gd name="connsiteY12" fmla="*/ 675649 h 1187617"/>
+            <a:gd name="connsiteX13" fmla="*/ 2875360 w 2958704"/>
+            <a:gd name="connsiteY13" fmla="*/ 687555 h 1187617"/>
+            <a:gd name="connsiteX14" fmla="*/ 2839641 w 2958704"/>
+            <a:gd name="connsiteY14" fmla="*/ 723274 h 1187617"/>
+            <a:gd name="connsiteX15" fmla="*/ 2797969 w 2958704"/>
+            <a:gd name="connsiteY15" fmla="*/ 753039 h 1187617"/>
+            <a:gd name="connsiteX16" fmla="*/ 2774157 w 2958704"/>
+            <a:gd name="connsiteY16" fmla="*/ 764945 h 1187617"/>
+            <a:gd name="connsiteX17" fmla="*/ 2714625 w 2958704"/>
+            <a:gd name="connsiteY17" fmla="*/ 806617 h 1187617"/>
+            <a:gd name="connsiteX18" fmla="*/ 2678907 w 2958704"/>
+            <a:gd name="connsiteY18" fmla="*/ 830430 h 1187617"/>
+            <a:gd name="connsiteX19" fmla="*/ 2607469 w 2958704"/>
+            <a:gd name="connsiteY19" fmla="*/ 878055 h 1187617"/>
+            <a:gd name="connsiteX20" fmla="*/ 2553891 w 2958704"/>
+            <a:gd name="connsiteY20" fmla="*/ 901867 h 1187617"/>
+            <a:gd name="connsiteX21" fmla="*/ 2530079 w 2958704"/>
+            <a:gd name="connsiteY21" fmla="*/ 913774 h 1187617"/>
+            <a:gd name="connsiteX22" fmla="*/ 2405063 w 2958704"/>
+            <a:gd name="connsiteY22" fmla="*/ 967352 h 1187617"/>
+            <a:gd name="connsiteX23" fmla="*/ 2345532 w 2958704"/>
+            <a:gd name="connsiteY23" fmla="*/ 985211 h 1187617"/>
+            <a:gd name="connsiteX24" fmla="*/ 2321719 w 2958704"/>
+            <a:gd name="connsiteY24" fmla="*/ 997117 h 1187617"/>
+            <a:gd name="connsiteX25" fmla="*/ 2238375 w 2958704"/>
+            <a:gd name="connsiteY25" fmla="*/ 1020930 h 1187617"/>
+            <a:gd name="connsiteX26" fmla="*/ 2184797 w 2958704"/>
+            <a:gd name="connsiteY26" fmla="*/ 1032836 h 1187617"/>
+            <a:gd name="connsiteX27" fmla="*/ 2089547 w 2958704"/>
+            <a:gd name="connsiteY27" fmla="*/ 1068555 h 1187617"/>
+            <a:gd name="connsiteX28" fmla="*/ 2030016 w 2958704"/>
+            <a:gd name="connsiteY28" fmla="*/ 1080461 h 1187617"/>
+            <a:gd name="connsiteX29" fmla="*/ 1916907 w 2958704"/>
+            <a:gd name="connsiteY29" fmla="*/ 1104274 h 1187617"/>
+            <a:gd name="connsiteX30" fmla="*/ 1869282 w 2958704"/>
+            <a:gd name="connsiteY30" fmla="*/ 1110227 h 1187617"/>
+            <a:gd name="connsiteX31" fmla="*/ 1803797 w 2958704"/>
+            <a:gd name="connsiteY31" fmla="*/ 1122133 h 1187617"/>
+            <a:gd name="connsiteX32" fmla="*/ 1762125 w 2958704"/>
+            <a:gd name="connsiteY32" fmla="*/ 1128086 h 1187617"/>
+            <a:gd name="connsiteX33" fmla="*/ 1654969 w 2958704"/>
+            <a:gd name="connsiteY33" fmla="*/ 1145945 h 1187617"/>
+            <a:gd name="connsiteX34" fmla="*/ 1541860 w 2958704"/>
+            <a:gd name="connsiteY34" fmla="*/ 1169758 h 1187617"/>
+            <a:gd name="connsiteX35" fmla="*/ 1333500 w 2958704"/>
+            <a:gd name="connsiteY35" fmla="*/ 1187617 h 1187617"/>
+            <a:gd name="connsiteX36" fmla="*/ 726282 w 2958704"/>
+            <a:gd name="connsiteY36" fmla="*/ 1181664 h 1187617"/>
+            <a:gd name="connsiteX37" fmla="*/ 666750 w 2958704"/>
+            <a:gd name="connsiteY37" fmla="*/ 1169758 h 1187617"/>
+            <a:gd name="connsiteX38" fmla="*/ 601266 w 2958704"/>
+            <a:gd name="connsiteY38" fmla="*/ 1163805 h 1187617"/>
+            <a:gd name="connsiteX39" fmla="*/ 511969 w 2958704"/>
+            <a:gd name="connsiteY39" fmla="*/ 1139992 h 1187617"/>
+            <a:gd name="connsiteX40" fmla="*/ 464344 w 2958704"/>
+            <a:gd name="connsiteY40" fmla="*/ 1128086 h 1187617"/>
+            <a:gd name="connsiteX41" fmla="*/ 381000 w 2958704"/>
+            <a:gd name="connsiteY41" fmla="*/ 1092367 h 1187617"/>
+            <a:gd name="connsiteX42" fmla="*/ 357188 w 2958704"/>
+            <a:gd name="connsiteY42" fmla="*/ 1080461 h 1187617"/>
+            <a:gd name="connsiteX43" fmla="*/ 291704 w 2958704"/>
+            <a:gd name="connsiteY43" fmla="*/ 1038789 h 1187617"/>
+            <a:gd name="connsiteX44" fmla="*/ 273844 w 2958704"/>
+            <a:gd name="connsiteY44" fmla="*/ 1014977 h 1187617"/>
+            <a:gd name="connsiteX45" fmla="*/ 250032 w 2958704"/>
+            <a:gd name="connsiteY45" fmla="*/ 991164 h 1187617"/>
+            <a:gd name="connsiteX46" fmla="*/ 232172 w 2958704"/>
+            <a:gd name="connsiteY46" fmla="*/ 955445 h 1187617"/>
+            <a:gd name="connsiteX47" fmla="*/ 220266 w 2958704"/>
+            <a:gd name="connsiteY47" fmla="*/ 937586 h 1187617"/>
+            <a:gd name="connsiteX48" fmla="*/ 184547 w 2958704"/>
+            <a:gd name="connsiteY48" fmla="*/ 866149 h 1187617"/>
+            <a:gd name="connsiteX49" fmla="*/ 172641 w 2958704"/>
+            <a:gd name="connsiteY49" fmla="*/ 848289 h 1187617"/>
+            <a:gd name="connsiteX50" fmla="*/ 154782 w 2958704"/>
+            <a:gd name="connsiteY50" fmla="*/ 800664 h 1187617"/>
+            <a:gd name="connsiteX51" fmla="*/ 125016 w 2958704"/>
+            <a:gd name="connsiteY51" fmla="*/ 741133 h 1187617"/>
+            <a:gd name="connsiteX52" fmla="*/ 119063 w 2958704"/>
+            <a:gd name="connsiteY52" fmla="*/ 723274 h 1187617"/>
+            <a:gd name="connsiteX53" fmla="*/ 107157 w 2958704"/>
+            <a:gd name="connsiteY53" fmla="*/ 693508 h 1187617"/>
+            <a:gd name="connsiteX54" fmla="*/ 83344 w 2958704"/>
+            <a:gd name="connsiteY54" fmla="*/ 633977 h 1187617"/>
+            <a:gd name="connsiteX55" fmla="*/ 65485 w 2958704"/>
+            <a:gd name="connsiteY55" fmla="*/ 562539 h 1187617"/>
+            <a:gd name="connsiteX56" fmla="*/ 59532 w 2958704"/>
+            <a:gd name="connsiteY56" fmla="*/ 544680 h 1187617"/>
+            <a:gd name="connsiteX57" fmla="*/ 47625 w 2958704"/>
+            <a:gd name="connsiteY57" fmla="*/ 503008 h 1187617"/>
+            <a:gd name="connsiteX58" fmla="*/ 35719 w 2958704"/>
+            <a:gd name="connsiteY58" fmla="*/ 437524 h 1187617"/>
+            <a:gd name="connsiteX59" fmla="*/ 29766 w 2958704"/>
+            <a:gd name="connsiteY59" fmla="*/ 419664 h 1187617"/>
+            <a:gd name="connsiteX60" fmla="*/ 23813 w 2958704"/>
+            <a:gd name="connsiteY60" fmla="*/ 383945 h 1187617"/>
+            <a:gd name="connsiteX61" fmla="*/ 17860 w 2958704"/>
+            <a:gd name="connsiteY61" fmla="*/ 366086 h 1187617"/>
+            <a:gd name="connsiteX62" fmla="*/ 11907 w 2958704"/>
+            <a:gd name="connsiteY62" fmla="*/ 336320 h 1187617"/>
+            <a:gd name="connsiteX63" fmla="*/ 5954 w 2958704"/>
+            <a:gd name="connsiteY63" fmla="*/ 199399 h 1187617"/>
+            <a:gd name="connsiteX64" fmla="*/ 0 w 2958704"/>
+            <a:gd name="connsiteY64" fmla="*/ 133914 h 1187617"/>
+            <a:gd name="connsiteX65" fmla="*/ 5954 w 2958704"/>
+            <a:gd name="connsiteY65" fmla="*/ 32711 h 1187617"/>
+            <a:gd name="connsiteX66" fmla="*/ 11907 w 2958704"/>
+            <a:gd name="connsiteY66" fmla="*/ 2945 h 1187617"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX56" y="connsiteY56"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX57" y="connsiteY57"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX58" y="connsiteY58"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX59" y="connsiteY59"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX60" y="connsiteY60"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX61" y="connsiteY61"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX62" y="connsiteY62"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX63" y="connsiteY63"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX64" y="connsiteY64"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX65" y="connsiteY65"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX66" y="connsiteY66"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2958704" h="1187617">
+              <a:moveTo>
+                <a:pt x="2887266" y="294649"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2891235" y="304571"/>
+                <a:pt x="2894393" y="314856"/>
+                <a:pt x="2899172" y="324414"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2902372" y="330814"/>
+                <a:pt x="2908173" y="335736"/>
+                <a:pt x="2911079" y="342274"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2916176" y="353742"/>
+                <a:pt x="2919016" y="366086"/>
+                <a:pt x="2922985" y="377992"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2924969" y="383945"/>
+                <a:pt x="2927416" y="389764"/>
+                <a:pt x="2928938" y="395852"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2930922" y="403789"/>
+                <a:pt x="2932540" y="411827"/>
+                <a:pt x="2934891" y="419664"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2938497" y="431685"/>
+                <a:pt x="2942828" y="443477"/>
+                <a:pt x="2946797" y="455383"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2948781" y="461336"/>
+                <a:pt x="2951228" y="467154"/>
+                <a:pt x="2952750" y="473242"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="2958704" y="497055"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="2956719" y="532774"/>
+                <a:pt x="2956142" y="568598"/>
+                <a:pt x="2952750" y="604211"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2952155" y="610458"/>
+                <a:pt x="2950278" y="616849"/>
+                <a:pt x="2946797" y="622070"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2927291" y="651331"/>
+                <a:pt x="2933044" y="629871"/>
+                <a:pt x="2911079" y="651836"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2904063" y="658852"/>
+                <a:pt x="2900235" y="668633"/>
+                <a:pt x="2893219" y="675649"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2888160" y="680708"/>
+                <a:pt x="2880707" y="682802"/>
+                <a:pt x="2875360" y="687555"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2862775" y="698742"/>
+                <a:pt x="2854701" y="715744"/>
+                <a:pt x="2839641" y="723274"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2774381" y="755904"/>
+                <a:pt x="2854283" y="712816"/>
+                <a:pt x="2797969" y="753039"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2790748" y="758197"/>
+                <a:pt x="2781622" y="760146"/>
+                <a:pt x="2774157" y="764945"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2753781" y="778044"/>
+                <a:pt x="2734585" y="792894"/>
+                <a:pt x="2714625" y="806617"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2702833" y="814724"/>
+                <a:pt x="2690355" y="821845"/>
+                <a:pt x="2678907" y="830430"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2652990" y="849867"/>
+                <a:pt x="2639219" y="861246"/>
+                <a:pt x="2607469" y="878055"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2590196" y="887199"/>
+                <a:pt x="2571636" y="893677"/>
+                <a:pt x="2553891" y="901867"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2545833" y="905586"/>
+                <a:pt x="2538202" y="910200"/>
+                <a:pt x="2530079" y="913774"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2488581" y="932033"/>
+                <a:pt x="2448489" y="954324"/>
+                <a:pt x="2405063" y="967352"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2385219" y="973305"/>
+                <a:pt x="2365042" y="978243"/>
+                <a:pt x="2345532" y="985211"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337174" y="988196"/>
+                <a:pt x="2330138" y="994311"/>
+                <a:pt x="2321719" y="997117"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2294309" y="1006254"/>
+                <a:pt x="2266332" y="1013637"/>
+                <a:pt x="2238375" y="1020930"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2220672" y="1025548"/>
+                <a:pt x="2202222" y="1027260"/>
+                <a:pt x="2184797" y="1032836"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2152501" y="1043171"/>
+                <a:pt x="2122798" y="1061905"/>
+                <a:pt x="2089547" y="1068555"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2069703" y="1072524"/>
+                <a:pt x="2049771" y="1076071"/>
+                <a:pt x="2030016" y="1080461"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1953392" y="1097488"/>
+                <a:pt x="2008625" y="1089792"/>
+                <a:pt x="1916907" y="1104274"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1901104" y="1106769"/>
+                <a:pt x="1885085" y="1107732"/>
+                <a:pt x="1869282" y="1110227"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1847367" y="1113687"/>
+                <a:pt x="1825681" y="1118486"/>
+                <a:pt x="1803797" y="1122133"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1789956" y="1124440"/>
+                <a:pt x="1775916" y="1125500"/>
+                <a:pt x="1762125" y="1128086"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1658678" y="1147482"/>
+                <a:pt x="1758482" y="1134444"/>
+                <a:pt x="1654969" y="1145945"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1632052" y="1151038"/>
+                <a:pt x="1563565" y="1166657"/>
+                <a:pt x="1541860" y="1169758"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1454287" y="1182268"/>
+                <a:pt x="1420586" y="1182494"/>
+                <a:pt x="1333500" y="1187617"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="726282" y="1181664"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="706052" y="1181122"/>
+                <a:pt x="686784" y="1172620"/>
+                <a:pt x="666750" y="1169758"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="645052" y="1166658"/>
+                <a:pt x="623094" y="1165789"/>
+                <a:pt x="601266" y="1163805"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="465314" y="1129818"/>
+                <a:pt x="634981" y="1172796"/>
+                <a:pt x="511969" y="1139992"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="496158" y="1135776"/>
+                <a:pt x="479722" y="1133678"/>
+                <a:pt x="464344" y="1128086"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="435939" y="1117757"/>
+                <a:pt x="408034" y="1105884"/>
+                <a:pt x="381000" y="1092367"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="373063" y="1088398"/>
+                <a:pt x="364798" y="1085027"/>
+                <a:pt x="357188" y="1080461"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="335002" y="1067149"/>
+                <a:pt x="291704" y="1038789"/>
+                <a:pt x="291704" y="1038789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="285751" y="1030852"/>
+                <a:pt x="280378" y="1022444"/>
+                <a:pt x="273844" y="1014977"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="266452" y="1006529"/>
+                <a:pt x="256469" y="1000360"/>
+                <a:pt x="250032" y="991164"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="242398" y="980259"/>
+                <a:pt x="238637" y="967082"/>
+                <a:pt x="232172" y="955445"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="228697" y="949191"/>
+                <a:pt x="223633" y="943899"/>
+                <a:pt x="220266" y="937586"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="207737" y="914095"/>
+                <a:pt x="199314" y="888301"/>
+                <a:pt x="184547" y="866149"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="180578" y="860196"/>
+                <a:pt x="175602" y="854803"/>
+                <a:pt x="172641" y="848289"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="165625" y="832854"/>
+                <a:pt x="161668" y="816157"/>
+                <a:pt x="154782" y="800664"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="145771" y="780390"/>
+                <a:pt x="132032" y="762180"/>
+                <a:pt x="125016" y="741133"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="123032" y="735180"/>
+                <a:pt x="121266" y="729149"/>
+                <a:pt x="119063" y="723274"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="115311" y="713268"/>
+                <a:pt x="110536" y="703646"/>
+                <a:pt x="107157" y="693508"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="88662" y="638023"/>
+                <a:pt x="105553" y="667290"/>
+                <a:pt x="83344" y="633977"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="69330" y="591933"/>
+                <a:pt x="85387" y="642148"/>
+                <a:pt x="65485" y="562539"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="63963" y="556451"/>
+                <a:pt x="61256" y="550714"/>
+                <a:pt x="59532" y="544680"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="44590" y="492381"/>
+                <a:pt x="61894" y="545807"/>
+                <a:pt x="47625" y="503008"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="44971" y="487083"/>
+                <a:pt x="39880" y="454167"/>
+                <a:pt x="35719" y="437524"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="34197" y="431436"/>
+                <a:pt x="31127" y="425790"/>
+                <a:pt x="29766" y="419664"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="27148" y="407881"/>
+                <a:pt x="26431" y="395728"/>
+                <a:pt x="23813" y="383945"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="22452" y="377819"/>
+                <a:pt x="19382" y="372174"/>
+                <a:pt x="17860" y="366086"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15406" y="356270"/>
+                <a:pt x="13891" y="346242"/>
+                <a:pt x="11907" y="336320"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9923" y="290680"/>
+                <a:pt x="8637" y="245004"/>
+                <a:pt x="5954" y="199399"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4667" y="177518"/>
+                <a:pt x="0" y="155832"/>
+                <a:pt x="0" y="133914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="100121"/>
+                <a:pt x="2750" y="66351"/>
+                <a:pt x="5954" y="32711"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12388" y="-34845"/>
+                <a:pt x="11907" y="27225"/>
+                <a:pt x="11907" y="2945"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1039,11 +1778,12 @@
   <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J3" activeCellId="3" sqref="J11 J8 J6 J3"/>
+      <selection activeCell="L11" activeCellId="4" sqref="L3 L6 L8 L10 L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="8" width="4.1640625" customWidth="1"/>
     <col min="10" max="11" width="4.75" style="3" customWidth="1"/>
     <col min="12" max="12" width="4.83203125" style="3" bestFit="1" customWidth="1"/>

--- a/other2/thomas/CF_839D_Winterishere/CF_839D_Winterishere.xlsx
+++ b/other2/thomas/CF_839D_Winterishere/CF_839D_Winterishere.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\CF_839D_Winterishere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913D1929-E679-4CB0-AD6F-908CCCA28350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD9D4B-3ED0-406A-AC35-ADAC0D45E42D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="0" windowWidth="37060" windowHeight="18290" xr2:uid="{246F2BD8-E181-44C1-A457-C6F82A5281E5}"/>
+    <workbookView xWindow="4020" yWindow="0" windowWidth="37060" windowHeight="18290" xr2:uid="{246F2BD8-E181-44C1-A457-C6F82A5281E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,19 +51,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长度XGCD</t>
+    <t>Input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长度</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GCD</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GCD&gt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的组合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1次计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2次计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +167,39 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,30 +248,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -182,13 +308,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228997</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>44847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -707,745 +833,6 @@
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>80565</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>83176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>20638</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>20637</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="任意多边形: 形状 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FBF39D7-8580-4084-B7CB-392FA7F4E4E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1420018" y="1690520"/>
-          <a:ext cx="2952354" cy="1187617"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 2887266 w 2958704"/>
-            <a:gd name="connsiteY0" fmla="*/ 294649 h 1187617"/>
-            <a:gd name="connsiteX1" fmla="*/ 2899172 w 2958704"/>
-            <a:gd name="connsiteY1" fmla="*/ 324414 h 1187617"/>
-            <a:gd name="connsiteX2" fmla="*/ 2911079 w 2958704"/>
-            <a:gd name="connsiteY2" fmla="*/ 342274 h 1187617"/>
-            <a:gd name="connsiteX3" fmla="*/ 2922985 w 2958704"/>
-            <a:gd name="connsiteY3" fmla="*/ 377992 h 1187617"/>
-            <a:gd name="connsiteX4" fmla="*/ 2928938 w 2958704"/>
-            <a:gd name="connsiteY4" fmla="*/ 395852 h 1187617"/>
-            <a:gd name="connsiteX5" fmla="*/ 2934891 w 2958704"/>
-            <a:gd name="connsiteY5" fmla="*/ 419664 h 1187617"/>
-            <a:gd name="connsiteX6" fmla="*/ 2946797 w 2958704"/>
-            <a:gd name="connsiteY6" fmla="*/ 455383 h 1187617"/>
-            <a:gd name="connsiteX7" fmla="*/ 2952750 w 2958704"/>
-            <a:gd name="connsiteY7" fmla="*/ 473242 h 1187617"/>
-            <a:gd name="connsiteX8" fmla="*/ 2958704 w 2958704"/>
-            <a:gd name="connsiteY8" fmla="*/ 497055 h 1187617"/>
-            <a:gd name="connsiteX9" fmla="*/ 2952750 w 2958704"/>
-            <a:gd name="connsiteY9" fmla="*/ 604211 h 1187617"/>
-            <a:gd name="connsiteX10" fmla="*/ 2946797 w 2958704"/>
-            <a:gd name="connsiteY10" fmla="*/ 622070 h 1187617"/>
-            <a:gd name="connsiteX11" fmla="*/ 2911079 w 2958704"/>
-            <a:gd name="connsiteY11" fmla="*/ 651836 h 1187617"/>
-            <a:gd name="connsiteX12" fmla="*/ 2893219 w 2958704"/>
-            <a:gd name="connsiteY12" fmla="*/ 675649 h 1187617"/>
-            <a:gd name="connsiteX13" fmla="*/ 2875360 w 2958704"/>
-            <a:gd name="connsiteY13" fmla="*/ 687555 h 1187617"/>
-            <a:gd name="connsiteX14" fmla="*/ 2839641 w 2958704"/>
-            <a:gd name="connsiteY14" fmla="*/ 723274 h 1187617"/>
-            <a:gd name="connsiteX15" fmla="*/ 2797969 w 2958704"/>
-            <a:gd name="connsiteY15" fmla="*/ 753039 h 1187617"/>
-            <a:gd name="connsiteX16" fmla="*/ 2774157 w 2958704"/>
-            <a:gd name="connsiteY16" fmla="*/ 764945 h 1187617"/>
-            <a:gd name="connsiteX17" fmla="*/ 2714625 w 2958704"/>
-            <a:gd name="connsiteY17" fmla="*/ 806617 h 1187617"/>
-            <a:gd name="connsiteX18" fmla="*/ 2678907 w 2958704"/>
-            <a:gd name="connsiteY18" fmla="*/ 830430 h 1187617"/>
-            <a:gd name="connsiteX19" fmla="*/ 2607469 w 2958704"/>
-            <a:gd name="connsiteY19" fmla="*/ 878055 h 1187617"/>
-            <a:gd name="connsiteX20" fmla="*/ 2553891 w 2958704"/>
-            <a:gd name="connsiteY20" fmla="*/ 901867 h 1187617"/>
-            <a:gd name="connsiteX21" fmla="*/ 2530079 w 2958704"/>
-            <a:gd name="connsiteY21" fmla="*/ 913774 h 1187617"/>
-            <a:gd name="connsiteX22" fmla="*/ 2405063 w 2958704"/>
-            <a:gd name="connsiteY22" fmla="*/ 967352 h 1187617"/>
-            <a:gd name="connsiteX23" fmla="*/ 2345532 w 2958704"/>
-            <a:gd name="connsiteY23" fmla="*/ 985211 h 1187617"/>
-            <a:gd name="connsiteX24" fmla="*/ 2321719 w 2958704"/>
-            <a:gd name="connsiteY24" fmla="*/ 997117 h 1187617"/>
-            <a:gd name="connsiteX25" fmla="*/ 2238375 w 2958704"/>
-            <a:gd name="connsiteY25" fmla="*/ 1020930 h 1187617"/>
-            <a:gd name="connsiteX26" fmla="*/ 2184797 w 2958704"/>
-            <a:gd name="connsiteY26" fmla="*/ 1032836 h 1187617"/>
-            <a:gd name="connsiteX27" fmla="*/ 2089547 w 2958704"/>
-            <a:gd name="connsiteY27" fmla="*/ 1068555 h 1187617"/>
-            <a:gd name="connsiteX28" fmla="*/ 2030016 w 2958704"/>
-            <a:gd name="connsiteY28" fmla="*/ 1080461 h 1187617"/>
-            <a:gd name="connsiteX29" fmla="*/ 1916907 w 2958704"/>
-            <a:gd name="connsiteY29" fmla="*/ 1104274 h 1187617"/>
-            <a:gd name="connsiteX30" fmla="*/ 1869282 w 2958704"/>
-            <a:gd name="connsiteY30" fmla="*/ 1110227 h 1187617"/>
-            <a:gd name="connsiteX31" fmla="*/ 1803797 w 2958704"/>
-            <a:gd name="connsiteY31" fmla="*/ 1122133 h 1187617"/>
-            <a:gd name="connsiteX32" fmla="*/ 1762125 w 2958704"/>
-            <a:gd name="connsiteY32" fmla="*/ 1128086 h 1187617"/>
-            <a:gd name="connsiteX33" fmla="*/ 1654969 w 2958704"/>
-            <a:gd name="connsiteY33" fmla="*/ 1145945 h 1187617"/>
-            <a:gd name="connsiteX34" fmla="*/ 1541860 w 2958704"/>
-            <a:gd name="connsiteY34" fmla="*/ 1169758 h 1187617"/>
-            <a:gd name="connsiteX35" fmla="*/ 1333500 w 2958704"/>
-            <a:gd name="connsiteY35" fmla="*/ 1187617 h 1187617"/>
-            <a:gd name="connsiteX36" fmla="*/ 726282 w 2958704"/>
-            <a:gd name="connsiteY36" fmla="*/ 1181664 h 1187617"/>
-            <a:gd name="connsiteX37" fmla="*/ 666750 w 2958704"/>
-            <a:gd name="connsiteY37" fmla="*/ 1169758 h 1187617"/>
-            <a:gd name="connsiteX38" fmla="*/ 601266 w 2958704"/>
-            <a:gd name="connsiteY38" fmla="*/ 1163805 h 1187617"/>
-            <a:gd name="connsiteX39" fmla="*/ 511969 w 2958704"/>
-            <a:gd name="connsiteY39" fmla="*/ 1139992 h 1187617"/>
-            <a:gd name="connsiteX40" fmla="*/ 464344 w 2958704"/>
-            <a:gd name="connsiteY40" fmla="*/ 1128086 h 1187617"/>
-            <a:gd name="connsiteX41" fmla="*/ 381000 w 2958704"/>
-            <a:gd name="connsiteY41" fmla="*/ 1092367 h 1187617"/>
-            <a:gd name="connsiteX42" fmla="*/ 357188 w 2958704"/>
-            <a:gd name="connsiteY42" fmla="*/ 1080461 h 1187617"/>
-            <a:gd name="connsiteX43" fmla="*/ 291704 w 2958704"/>
-            <a:gd name="connsiteY43" fmla="*/ 1038789 h 1187617"/>
-            <a:gd name="connsiteX44" fmla="*/ 273844 w 2958704"/>
-            <a:gd name="connsiteY44" fmla="*/ 1014977 h 1187617"/>
-            <a:gd name="connsiteX45" fmla="*/ 250032 w 2958704"/>
-            <a:gd name="connsiteY45" fmla="*/ 991164 h 1187617"/>
-            <a:gd name="connsiteX46" fmla="*/ 232172 w 2958704"/>
-            <a:gd name="connsiteY46" fmla="*/ 955445 h 1187617"/>
-            <a:gd name="connsiteX47" fmla="*/ 220266 w 2958704"/>
-            <a:gd name="connsiteY47" fmla="*/ 937586 h 1187617"/>
-            <a:gd name="connsiteX48" fmla="*/ 184547 w 2958704"/>
-            <a:gd name="connsiteY48" fmla="*/ 866149 h 1187617"/>
-            <a:gd name="connsiteX49" fmla="*/ 172641 w 2958704"/>
-            <a:gd name="connsiteY49" fmla="*/ 848289 h 1187617"/>
-            <a:gd name="connsiteX50" fmla="*/ 154782 w 2958704"/>
-            <a:gd name="connsiteY50" fmla="*/ 800664 h 1187617"/>
-            <a:gd name="connsiteX51" fmla="*/ 125016 w 2958704"/>
-            <a:gd name="connsiteY51" fmla="*/ 741133 h 1187617"/>
-            <a:gd name="connsiteX52" fmla="*/ 119063 w 2958704"/>
-            <a:gd name="connsiteY52" fmla="*/ 723274 h 1187617"/>
-            <a:gd name="connsiteX53" fmla="*/ 107157 w 2958704"/>
-            <a:gd name="connsiteY53" fmla="*/ 693508 h 1187617"/>
-            <a:gd name="connsiteX54" fmla="*/ 83344 w 2958704"/>
-            <a:gd name="connsiteY54" fmla="*/ 633977 h 1187617"/>
-            <a:gd name="connsiteX55" fmla="*/ 65485 w 2958704"/>
-            <a:gd name="connsiteY55" fmla="*/ 562539 h 1187617"/>
-            <a:gd name="connsiteX56" fmla="*/ 59532 w 2958704"/>
-            <a:gd name="connsiteY56" fmla="*/ 544680 h 1187617"/>
-            <a:gd name="connsiteX57" fmla="*/ 47625 w 2958704"/>
-            <a:gd name="connsiteY57" fmla="*/ 503008 h 1187617"/>
-            <a:gd name="connsiteX58" fmla="*/ 35719 w 2958704"/>
-            <a:gd name="connsiteY58" fmla="*/ 437524 h 1187617"/>
-            <a:gd name="connsiteX59" fmla="*/ 29766 w 2958704"/>
-            <a:gd name="connsiteY59" fmla="*/ 419664 h 1187617"/>
-            <a:gd name="connsiteX60" fmla="*/ 23813 w 2958704"/>
-            <a:gd name="connsiteY60" fmla="*/ 383945 h 1187617"/>
-            <a:gd name="connsiteX61" fmla="*/ 17860 w 2958704"/>
-            <a:gd name="connsiteY61" fmla="*/ 366086 h 1187617"/>
-            <a:gd name="connsiteX62" fmla="*/ 11907 w 2958704"/>
-            <a:gd name="connsiteY62" fmla="*/ 336320 h 1187617"/>
-            <a:gd name="connsiteX63" fmla="*/ 5954 w 2958704"/>
-            <a:gd name="connsiteY63" fmla="*/ 199399 h 1187617"/>
-            <a:gd name="connsiteX64" fmla="*/ 0 w 2958704"/>
-            <a:gd name="connsiteY64" fmla="*/ 133914 h 1187617"/>
-            <a:gd name="connsiteX65" fmla="*/ 5954 w 2958704"/>
-            <a:gd name="connsiteY65" fmla="*/ 32711 h 1187617"/>
-            <a:gd name="connsiteX66" fmla="*/ 11907 w 2958704"/>
-            <a:gd name="connsiteY66" fmla="*/ 2945 h 1187617"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX8" y="connsiteY8"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX9" y="connsiteY9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX10" y="connsiteY10"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX11" y="connsiteY11"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX12" y="connsiteY12"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX13" y="connsiteY13"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX14" y="connsiteY14"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX15" y="connsiteY15"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX16" y="connsiteY16"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX17" y="connsiteY17"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX18" y="connsiteY18"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX19" y="connsiteY19"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX20" y="connsiteY20"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX21" y="connsiteY21"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX22" y="connsiteY22"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX23" y="connsiteY23"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX24" y="connsiteY24"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX25" y="connsiteY25"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX26" y="connsiteY26"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX27" y="connsiteY27"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX28" y="connsiteY28"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX29" y="connsiteY29"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX30" y="connsiteY30"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX31" y="connsiteY31"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX32" y="connsiteY32"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX33" y="connsiteY33"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX34" y="connsiteY34"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX35" y="connsiteY35"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX36" y="connsiteY36"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX37" y="connsiteY37"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX38" y="connsiteY38"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX39" y="connsiteY39"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX40" y="connsiteY40"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX41" y="connsiteY41"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX42" y="connsiteY42"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX43" y="connsiteY43"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX44" y="connsiteY44"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX45" y="connsiteY45"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX46" y="connsiteY46"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX47" y="connsiteY47"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX48" y="connsiteY48"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX49" y="connsiteY49"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX50" y="connsiteY50"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX51" y="connsiteY51"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX52" y="connsiteY52"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX53" y="connsiteY53"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX54" y="connsiteY54"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX55" y="connsiteY55"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX56" y="connsiteY56"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX57" y="connsiteY57"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX58" y="connsiteY58"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX59" y="connsiteY59"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX60" y="connsiteY60"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX61" y="connsiteY61"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX62" y="connsiteY62"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX63" y="connsiteY63"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX64" y="connsiteY64"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX65" y="connsiteY65"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX66" y="connsiteY66"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="2958704" h="1187617">
-              <a:moveTo>
-                <a:pt x="2887266" y="294649"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="2891235" y="304571"/>
-                <a:pt x="2894393" y="314856"/>
-                <a:pt x="2899172" y="324414"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2902372" y="330814"/>
-                <a:pt x="2908173" y="335736"/>
-                <a:pt x="2911079" y="342274"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2916176" y="353742"/>
-                <a:pt x="2919016" y="366086"/>
-                <a:pt x="2922985" y="377992"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2924969" y="383945"/>
-                <a:pt x="2927416" y="389764"/>
-                <a:pt x="2928938" y="395852"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2930922" y="403789"/>
-                <a:pt x="2932540" y="411827"/>
-                <a:pt x="2934891" y="419664"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2938497" y="431685"/>
-                <a:pt x="2942828" y="443477"/>
-                <a:pt x="2946797" y="455383"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2948781" y="461336"/>
-                <a:pt x="2951228" y="467154"/>
-                <a:pt x="2952750" y="473242"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="2958704" y="497055"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="2956719" y="532774"/>
-                <a:pt x="2956142" y="568598"/>
-                <a:pt x="2952750" y="604211"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2952155" y="610458"/>
-                <a:pt x="2950278" y="616849"/>
-                <a:pt x="2946797" y="622070"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2927291" y="651331"/>
-                <a:pt x="2933044" y="629871"/>
-                <a:pt x="2911079" y="651836"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2904063" y="658852"/>
-                <a:pt x="2900235" y="668633"/>
-                <a:pt x="2893219" y="675649"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2888160" y="680708"/>
-                <a:pt x="2880707" y="682802"/>
-                <a:pt x="2875360" y="687555"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2862775" y="698742"/>
-                <a:pt x="2854701" y="715744"/>
-                <a:pt x="2839641" y="723274"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2774381" y="755904"/>
-                <a:pt x="2854283" y="712816"/>
-                <a:pt x="2797969" y="753039"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2790748" y="758197"/>
-                <a:pt x="2781622" y="760146"/>
-                <a:pt x="2774157" y="764945"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2753781" y="778044"/>
-                <a:pt x="2734585" y="792894"/>
-                <a:pt x="2714625" y="806617"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2702833" y="814724"/>
-                <a:pt x="2690355" y="821845"/>
-                <a:pt x="2678907" y="830430"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2652990" y="849867"/>
-                <a:pt x="2639219" y="861246"/>
-                <a:pt x="2607469" y="878055"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2590196" y="887199"/>
-                <a:pt x="2571636" y="893677"/>
-                <a:pt x="2553891" y="901867"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2545833" y="905586"/>
-                <a:pt x="2538202" y="910200"/>
-                <a:pt x="2530079" y="913774"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2488581" y="932033"/>
-                <a:pt x="2448489" y="954324"/>
-                <a:pt x="2405063" y="967352"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2385219" y="973305"/>
-                <a:pt x="2365042" y="978243"/>
-                <a:pt x="2345532" y="985211"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2337174" y="988196"/>
-                <a:pt x="2330138" y="994311"/>
-                <a:pt x="2321719" y="997117"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2294309" y="1006254"/>
-                <a:pt x="2266332" y="1013637"/>
-                <a:pt x="2238375" y="1020930"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2220672" y="1025548"/>
-                <a:pt x="2202222" y="1027260"/>
-                <a:pt x="2184797" y="1032836"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2152501" y="1043171"/>
-                <a:pt x="2122798" y="1061905"/>
-                <a:pt x="2089547" y="1068555"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2069703" y="1072524"/>
-                <a:pt x="2049771" y="1076071"/>
-                <a:pt x="2030016" y="1080461"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1953392" y="1097488"/>
-                <a:pt x="2008625" y="1089792"/>
-                <a:pt x="1916907" y="1104274"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1901104" y="1106769"/>
-                <a:pt x="1885085" y="1107732"/>
-                <a:pt x="1869282" y="1110227"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1847367" y="1113687"/>
-                <a:pt x="1825681" y="1118486"/>
-                <a:pt x="1803797" y="1122133"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1789956" y="1124440"/>
-                <a:pt x="1775916" y="1125500"/>
-                <a:pt x="1762125" y="1128086"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1658678" y="1147482"/>
-                <a:pt x="1758482" y="1134444"/>
-                <a:pt x="1654969" y="1145945"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1632052" y="1151038"/>
-                <a:pt x="1563565" y="1166657"/>
-                <a:pt x="1541860" y="1169758"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1454287" y="1182268"/>
-                <a:pt x="1420586" y="1182494"/>
-                <a:pt x="1333500" y="1187617"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="726282" y="1181664"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="706052" y="1181122"/>
-                <a:pt x="686784" y="1172620"/>
-                <a:pt x="666750" y="1169758"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="645052" y="1166658"/>
-                <a:pt x="623094" y="1165789"/>
-                <a:pt x="601266" y="1163805"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="465314" y="1129818"/>
-                <a:pt x="634981" y="1172796"/>
-                <a:pt x="511969" y="1139992"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="496158" y="1135776"/>
-                <a:pt x="479722" y="1133678"/>
-                <a:pt x="464344" y="1128086"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="435939" y="1117757"/>
-                <a:pt x="408034" y="1105884"/>
-                <a:pt x="381000" y="1092367"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="373063" y="1088398"/>
-                <a:pt x="364798" y="1085027"/>
-                <a:pt x="357188" y="1080461"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="335002" y="1067149"/>
-                <a:pt x="291704" y="1038789"/>
-                <a:pt x="291704" y="1038789"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="285751" y="1030852"/>
-                <a:pt x="280378" y="1022444"/>
-                <a:pt x="273844" y="1014977"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="266452" y="1006529"/>
-                <a:pt x="256469" y="1000360"/>
-                <a:pt x="250032" y="991164"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="242398" y="980259"/>
-                <a:pt x="238637" y="967082"/>
-                <a:pt x="232172" y="955445"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="228697" y="949191"/>
-                <a:pt x="223633" y="943899"/>
-                <a:pt x="220266" y="937586"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="207737" y="914095"/>
-                <a:pt x="199314" y="888301"/>
-                <a:pt x="184547" y="866149"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="180578" y="860196"/>
-                <a:pt x="175602" y="854803"/>
-                <a:pt x="172641" y="848289"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="165625" y="832854"/>
-                <a:pt x="161668" y="816157"/>
-                <a:pt x="154782" y="800664"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="145771" y="780390"/>
-                <a:pt x="132032" y="762180"/>
-                <a:pt x="125016" y="741133"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="123032" y="735180"/>
-                <a:pt x="121266" y="729149"/>
-                <a:pt x="119063" y="723274"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="115311" y="713268"/>
-                <a:pt x="110536" y="703646"/>
-                <a:pt x="107157" y="693508"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="88662" y="638023"/>
-                <a:pt x="105553" y="667290"/>
-                <a:pt x="83344" y="633977"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="69330" y="591933"/>
-                <a:pt x="85387" y="642148"/>
-                <a:pt x="65485" y="562539"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="63963" y="556451"/>
-                <a:pt x="61256" y="550714"/>
-                <a:pt x="59532" y="544680"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="44590" y="492381"/>
-                <a:pt x="61894" y="545807"/>
-                <a:pt x="47625" y="503008"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="44971" y="487083"/>
-                <a:pt x="39880" y="454167"/>
-                <a:pt x="35719" y="437524"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="34197" y="431436"/>
-                <a:pt x="31127" y="425790"/>
-                <a:pt x="29766" y="419664"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="27148" y="407881"/>
-                <a:pt x="26431" y="395728"/>
-                <a:pt x="23813" y="383945"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="22452" y="377819"/>
-                <a:pt x="19382" y="372174"/>
-                <a:pt x="17860" y="366086"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15406" y="356270"/>
-                <a:pt x="13891" y="346242"/>
-                <a:pt x="11907" y="336320"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="9923" y="290680"/>
-                <a:pt x="8637" y="245004"/>
-                <a:pt x="5954" y="199399"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4667" y="177518"/>
-                <a:pt x="0" y="155832"/>
-                <a:pt x="0" y="133914"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="0" y="100121"/>
-                <a:pt x="2750" y="66351"/>
-                <a:pt x="5954" y="32711"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12388" y="-34845"/>
-                <a:pt x="11907" y="27225"/>
-                <a:pt x="11907" y="2945"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1775,257 +1162,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D833A3-2DB9-4E70-81DF-FA0D0422DBF4}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L11" activeCellId="4" sqref="L3 L6 L8 L10 L11"/>
+      <selection activeCell="K12" activeCellId="4" sqref="K4 K7 K9 K11 K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="8" width="4.1640625" customWidth="1"/>
-    <col min="10" max="11" width="4.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="3" customWidth="1"/>
+    <col min="2" max="8" width="4.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="3"/>
+    <col min="10" max="11" width="4.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
+    <row r="2" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5">
+      <c r="G3" s="2">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="H3" s="2"/>
+      <c r="J3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J3" s="3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3">
-        <f>K3*L3</f>
-        <v>2</v>
+      <c r="M3" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J4" s="3">
+      <c r="J4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4">
+        <f>K4*L4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
         <v>3</v>
       </c>
-      <c r="M4" s="3">
-        <f t="shared" ref="M4:M11" si="0">K4*L4</f>
+      <c r="M5" s="4">
+        <f t="shared" ref="M5:M12" si="0">K5*L5</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J5" s="3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J6" s="4">
         <v>4</v>
       </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
         <v>4</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2</v>
-      </c>
-      <c r="M6" s="3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J8" s="4">
         <v>6</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
         <v>6</v>
       </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
-        <v>6</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="M8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>2</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J10" s="3" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J11" s="3" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="4">
         <v>3</v>
       </c>
-      <c r="L11" s="3">
-        <v>2</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7">
-        <f>SUM(M3:M11)</f>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8">
+        <f>SUM(M4:M12)</f>
         <v>39</v>
       </c>
     </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6">
+        <v>5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5</v>
+      </c>
+      <c r="H20" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
